--- a/biology/Zoologie/Anetia_pantheratus/Anetia_pantheratus.xlsx
+++ b/biology/Zoologie/Anetia_pantheratus/Anetia_pantheratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia pantheratus est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Anetia.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anetia pantheratus a été décrit par Thomas Martyn (d) en 1797 sous le nom initial de Papilio pantheratus[1]. 
-Noms vernaculaires
-Anetia pantheratus se nomme Great King en anglais[2].
-Sous-espèces
-Anetia pantheratus pantheratus
-Anetia pantheratus clarescens (Hall, 1925)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia pantheratus a été décrit par Thomas Martyn (d) en 1797 sous le nom initial de Papilio pantheratus. 
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anetia pantheratus est un grand papillon aux ailes antérieures à bord costal bossu, bord externe concave et bord interne droit.
-Les ailes sont de couleur jaune orangé ornées de taches marron disposées en plusieurs lignes parallèles au bord externe.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia pantheratus se nomme Great King en anglais.
 </t>
         </is>
       </c>
@@ -575,13 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anetia pantheratus est présent à Cuba, en République dominicaine et à Haïti[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anetia pantheratus pantheratus
+Anetia pantheratus clarescens (Hall, 1925).</t>
         </is>
       </c>
     </row>
@@ -606,12 +627,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia pantheratus est un grand papillon aux ailes antérieures à bord costal bossu, bord externe concave et bord interne droit.
+Les ailes sont de couleur jaune orangé ornées de taches marron disposées en plusieurs lignes parallèles au bord externe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anetia_pantheratus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_pantheratus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia pantheratus est présent à Cuba, en République dominicaine et à Haïti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anetia_pantheratus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_pantheratus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noté NT sur le Red Data Book[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noté NT sur le Red Data Book.
 </t>
         </is>
       </c>
